--- a/fabricate/Various layouts.xlsx
+++ b/fabricate/Various layouts.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="22020" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="96" yWindow="24" windowWidth="22020" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="11x10" sheetId="1" r:id="rId1"/>
-    <sheet name="12x10" sheetId="2" r:id="rId2"/>
-    <sheet name="A4 15x8" sheetId="3" r:id="rId3"/>
-    <sheet name="VerticalA4 10x13" sheetId="4" r:id="rId4"/>
-    <sheet name="VerticalA4 10x13B" sheetId="5" r:id="rId5"/>
+    <sheet name="A4 13x7" sheetId="6" r:id="rId1"/>
+    <sheet name="11x10" sheetId="1" r:id="rId2"/>
+    <sheet name="12x10" sheetId="2" r:id="rId3"/>
+    <sheet name="A4 15x8" sheetId="3" r:id="rId4"/>
+    <sheet name="VerticalA4 10x13" sheetId="4" r:id="rId5"/>
+    <sheet name="VerticalA4 10x13B" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="66">
   <si>
     <t>one</t>
   </si>
@@ -207,6 +208,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -336,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,6 +405,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,6 +710,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="16" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1027,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S11"/>
   <sheetViews>
@@ -1437,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P9"/>
   <sheetViews>
@@ -1774,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K14"/>
   <sheetViews>
@@ -2133,11 +2450,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>

--- a/fabricate/Various layouts.xlsx
+++ b/fabricate/Various layouts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="22020" windowHeight="11640"/>
+    <workbookView xWindow="96" yWindow="24" windowWidth="22020" windowHeight="11640" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A4 13x7" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="A4 15x8" sheetId="3" r:id="rId4"/>
     <sheet name="VerticalA4 10x13" sheetId="4" r:id="rId5"/>
     <sheet name="VerticalA4 10x13B" sheetId="5" r:id="rId6"/>
+    <sheet name="TiM 16x8" sheetId="7" r:id="rId7"/>
+    <sheet name="10x10" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="71">
   <si>
     <t>one</t>
   </si>
@@ -217,13 +219,28 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +257,13 @@
     </font>
     <font>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -346,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +433,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,19 +1026,37 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
+      <c r="I8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
@@ -1758,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,4 +2899,737 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="17" width="4.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="3.109375" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>